--- a/数据记录.xlsx
+++ b/数据记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
   <si>
     <t>exp_9_all_data</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>diversity_sampling</t>
+  </si>
+  <si>
+    <t>MCD_BALD_sampling_20epoch</t>
   </si>
   <si>
     <t>BNN</t>
@@ -1034,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2641,80 +2644,345 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54">
-        <v>0.2503</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.5608</v>
+      </c>
+      <c r="C54">
+        <v>0.5706</v>
+      </c>
+      <c r="D54">
+        <v>0.5693</v>
+      </c>
+      <c r="E54">
+        <v>0.5667</v>
+      </c>
+      <c r="F54">
+        <v>0.5882</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
-        <v>0.1274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.4156</v>
+      </c>
+      <c r="C55">
+        <v>0.4395</v>
+      </c>
+      <c r="D55">
+        <v>0.439</v>
+      </c>
+      <c r="E55">
+        <v>0.447</v>
+      </c>
+      <c r="F55">
+        <v>0.4678</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>3</v>
       </c>
       <c r="B56">
-        <v>0.2571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+        <v>0.581</v>
+      </c>
+      <c r="C56">
+        <v>0.542</v>
+      </c>
+      <c r="D56">
+        <v>0.5628</v>
+      </c>
+      <c r="E56">
+        <v>0.5918</v>
+      </c>
+      <c r="F56">
+        <v>0.5926</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:6">
+      <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B57">
-        <v>0.1155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="2">
+        <v>0.427</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.4046</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.395</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.4541</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.4329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0.8564</v>
+      </c>
+      <c r="C58">
+        <v>0.8371</v>
+      </c>
+      <c r="D58">
+        <v>0.8454</v>
+      </c>
+      <c r="E58">
+        <v>0.8535</v>
+      </c>
+      <c r="F58">
+        <v>0.8379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0.0526</v>
+      </c>
+      <c r="C59">
+        <v>0.0526</v>
+      </c>
+      <c r="D59">
+        <v>0.1818</v>
+      </c>
+      <c r="E59">
+        <v>0.2083</v>
+      </c>
+      <c r="F59">
+        <v>0.1739</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0.3765</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>0.3778</v>
+      </c>
+      <c r="E60">
+        <v>0.3871</v>
+      </c>
+      <c r="F60">
+        <v>0.5149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0.1667</v>
+      </c>
+      <c r="C61">
+        <v>0.183</v>
+      </c>
+      <c r="D61">
+        <v>0.1867</v>
+      </c>
+      <c r="E61">
+        <v>0.1893</v>
+      </c>
+      <c r="F61">
+        <v>0.1987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="4">
+        <v>0.536</v>
+      </c>
+      <c r="C62">
+        <v>0.576</v>
+      </c>
+      <c r="D62">
+        <v>0.5839</v>
+      </c>
+      <c r="E62">
+        <v>0.5897</v>
+      </c>
+      <c r="F62">
+        <v>0.6332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0.0632</v>
+      </c>
+      <c r="C63">
+        <v>0.082</v>
+      </c>
+      <c r="D63">
+        <v>0.0064</v>
+      </c>
+      <c r="E63">
+        <v>0.081</v>
+      </c>
+      <c r="F63">
+        <v>0.0606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0.5535</v>
+      </c>
+      <c r="C64">
+        <v>0.5723</v>
+      </c>
+      <c r="D64">
+        <v>0.5541</v>
+      </c>
+      <c r="E64">
+        <v>0.5627</v>
+      </c>
+      <c r="F64">
+        <v>0.6335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0.5981</v>
+      </c>
+      <c r="C65">
+        <v>0.5959</v>
+      </c>
+      <c r="D65">
+        <v>0.5974</v>
+      </c>
+      <c r="E65">
+        <v>0.5899</v>
+      </c>
+      <c r="F65">
+        <v>0.5995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>0.5376</v>
+      </c>
+      <c r="C66">
+        <v>0.5561</v>
+      </c>
+      <c r="D66">
+        <v>0.5604</v>
+      </c>
+      <c r="E66">
+        <v>0.5609</v>
+      </c>
+      <c r="F66">
+        <v>0.5584</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>0.2503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>0.1274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>0.2571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>0.1155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
         <v>15</v>
       </c>
     </row>

--- a/数据记录.xlsx
+++ b/数据记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10430" windowHeight="11120"/>
+    <workbookView windowWidth="21710" windowHeight="11120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1039,13 +1039,13 @@
   <sheetPr/>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="31.8545454545455" customWidth="1"/>
     <col min="2" max="2" width="8.90909090909091" customWidth="1"/>
     <col min="3" max="3" width="8.63636363636364" customWidth="1"/>
   </cols>
@@ -1117,9 +1117,39 @@
         <v>0.5011</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1262,9 +1292,39 @@
         <v>0.4737</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1722,9 +1782,39 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2179,9 +2269,39 @@
         <v>0.615</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:11">
       <c r="A39" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2639,12 +2759,42 @@
         <v>0.5973</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2663,8 +2813,23 @@
       <c r="F54">
         <v>0.5882</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>0.602</v>
+      </c>
+      <c r="H54">
+        <v>0.6111</v>
+      </c>
+      <c r="I54">
+        <v>0.6092</v>
+      </c>
+      <c r="J54">
+        <v>0.6105</v>
+      </c>
+      <c r="K54">
+        <v>0.6215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2683,8 +2848,23 @@
       <c r="F55">
         <v>0.4678</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>0.4911</v>
+      </c>
+      <c r="H55">
+        <v>0.5138</v>
+      </c>
+      <c r="I55">
+        <v>0.4981</v>
+      </c>
+      <c r="J55">
+        <v>0.4974</v>
+      </c>
+      <c r="K55">
+        <v>0.5329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2883,23 @@
       <c r="F56">
         <v>0.5926</v>
       </c>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:6">
+      <c r="G56">
+        <v>0.6226</v>
+      </c>
+      <c r="H56">
+        <v>0.6425</v>
+      </c>
+      <c r="I56">
+        <v>0.6231</v>
+      </c>
+      <c r="J56">
+        <v>0.6403</v>
+      </c>
+      <c r="K56">
+        <v>0.6275</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:11">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -2723,8 +2918,23 @@
       <c r="F57" s="2">
         <v>0.4329</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="2">
+        <v>0.4678</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.5307</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.4983</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.5126</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0.5286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2743,8 +2953,23 @@
       <c r="F58">
         <v>0.8379</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>0.8521</v>
+      </c>
+      <c r="H58">
+        <v>0.8465</v>
+      </c>
+      <c r="I58">
+        <v>0.8593</v>
+      </c>
+      <c r="J58">
+        <v>0.8687</v>
+      </c>
+      <c r="K58">
+        <v>0.8622</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2763,8 +2988,23 @@
       <c r="F59">
         <v>0.1739</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>0.2641</v>
+      </c>
+      <c r="H59">
+        <v>0.2264</v>
+      </c>
+      <c r="I59">
+        <v>0.2456</v>
+      </c>
+      <c r="J59">
+        <v>0.2857</v>
+      </c>
+      <c r="K59">
+        <v>0.3492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2783,8 +3023,23 @@
       <c r="F60">
         <v>0.5149</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>0.4337</v>
+      </c>
+      <c r="H60">
+        <v>0.58</v>
+      </c>
+      <c r="I60">
+        <v>0.4819</v>
+      </c>
+      <c r="J60">
+        <v>0.4762</v>
+      </c>
+      <c r="K60">
+        <v>0.5895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2803,8 +3058,23 @@
       <c r="F61">
         <v>0.1987</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>0.2785</v>
+      </c>
+      <c r="H61">
+        <v>0.319</v>
+      </c>
+      <c r="I61">
+        <v>0.2876</v>
+      </c>
+      <c r="J61">
+        <v>0.2384</v>
+      </c>
+      <c r="K61">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2823,8 +3093,23 @@
       <c r="F62">
         <v>0.6332</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0.6302</v>
+      </c>
+      <c r="H62">
+        <v>0.6391</v>
+      </c>
+      <c r="I62">
+        <v>0.6272</v>
+      </c>
+      <c r="J62">
+        <v>0.6304</v>
+      </c>
+      <c r="K62">
+        <v>0.6058</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2843,8 +3128,23 @@
       <c r="F63">
         <v>0.0606</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>0.1165</v>
+      </c>
+      <c r="H63">
+        <v>0.1416</v>
+      </c>
+      <c r="I63">
+        <v>0.0943</v>
+      </c>
+      <c r="J63">
+        <v>0.099</v>
+      </c>
+      <c r="K63">
+        <v>0.1081</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2863,8 +3163,23 @@
       <c r="F64">
         <v>0.6335</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>0.6415</v>
+      </c>
+      <c r="H64">
+        <v>0.6514</v>
+      </c>
+      <c r="I64">
+        <v>0.6767</v>
+      </c>
+      <c r="J64">
+        <v>0.6788</v>
+      </c>
+      <c r="K64">
+        <v>0.6627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2883,8 +3198,23 @@
       <c r="F65">
         <v>0.5995</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>0.612</v>
+      </c>
+      <c r="H65">
+        <v>0.6159</v>
+      </c>
+      <c r="I65">
+        <v>0.6191</v>
+      </c>
+      <c r="J65">
+        <v>0.6267</v>
+      </c>
+      <c r="K65">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2902,6 +3232,21 @@
       </c>
       <c r="F66">
         <v>0.5584</v>
+      </c>
+      <c r="G66">
+        <v>0.5915</v>
+      </c>
+      <c r="H66">
+        <v>0.6044</v>
+      </c>
+      <c r="I66">
+        <v>0.5915</v>
+      </c>
+      <c r="J66">
+        <v>0.6712</v>
+      </c>
+      <c r="K66">
+        <v>0.584</v>
       </c>
     </row>
     <row r="67" spans="1:1">
